--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheGenius\Desktop\New folder (2)\exil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138AD302-D15F-416A-BD8B-910D859D2037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80565F3-DCC1-49F4-A3CE-3244E2C2F515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>kjhgk</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>kjkjhk</t>
+  </si>
+  <si>
+    <t>fjhgj</t>
+  </si>
+  <si>
+    <t>hgfj</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>jgfh</t>
+  </si>
+  <si>
+    <t>hgf</t>
   </si>
 </sst>
 </file>
@@ -351,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -363,6 +378,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
@@ -370,6 +388,31 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
